--- a/CM_bateria.xlsx
+++ b/CM_bateria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor_roncalli\Documents\Projeto Robo\ConcRobo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor_roncalli\Documents\Concremat\Zinho\ConcRobo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Robo</t>
   </si>
@@ -80,16 +80,31 @@
     <t>Itot</t>
   </si>
   <si>
-    <t>Ah</t>
-  </si>
-  <si>
     <t>CAMERA 1 ESTIMADA = CAMERA 2</t>
+  </si>
+  <si>
+    <t>Ah/bat</t>
+  </si>
+  <si>
+    <t>Num Bat</t>
+  </si>
+  <si>
+    <t>Ah Total</t>
+  </si>
+  <si>
+    <t>Duração (t)</t>
+  </si>
+  <si>
+    <t>Dist Max (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,20 +417,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -427,17 +447,17 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -447,19 +467,19 @@
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
       <c r="G5">
-        <f t="shared" ref="G5:G13" si="0">E5*D5/F5</f>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="0">E5*D5/G5</f>
         <v>0</v>
       </c>
-      <c r="H5">
-        <f>C5*G5</f>
+      <c r="I5">
+        <f>C5*H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -472,57 +492,57 @@
       <c r="E6">
         <v>0.12</v>
       </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
       <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H13" si="1">C6*G6</f>
+      <c r="I6">
+        <f t="shared" ref="I6:I13" si="1">C6*H6</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
       <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
       <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -535,19 +555,19 @@
       <c r="E9">
         <v>2.5</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
       <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>1.0416666666666667</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -560,19 +580,19 @@
       <c r="E10">
         <v>0.6</v>
       </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
       <c r="G10">
-        <f>E10*D10/F10</f>
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>E10*D10/G10</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -585,19 +605,19 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
       <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -608,24 +628,24 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -636,42 +656,82 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H13">
+        <v>1.5</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="H15">
-        <f>SUM(H5:H13)</f>
-        <v>6.8116666666666665</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <f>H15*3</f>
-        <v>20.434999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <f>H17/4</f>
-        <v>5.1087499999999997</v>
+      <c r="I15">
+        <f>SUM(I5:I13)</f>
+        <v>5.8116666666666665</v>
+      </c>
+      <c r="K15">
+        <f>1.65*4</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <f>5.5*4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <f>C15*C16</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>K16/K15</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C17/I15</f>
+        <v>3.7854889589905363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <f>C19*360</f>
+        <v>1362.7760252365931</v>
       </c>
     </row>
   </sheetData>
